--- a/LoadTest.xlsx
+++ b/LoadTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>URL</t>
   </si>
@@ -29,24 +29,6 @@
     <t>21/Jan/2019 10:24:18</t>
   </si>
   <si>
-    <t>21/Jan/2019 10:25:56</t>
-  </si>
-  <si>
-    <t>21/Jan/2019 10:31:39</t>
-  </si>
-  <si>
-    <t>21/Jan/2019 10:37:06</t>
-  </si>
-  <si>
-    <t>21/Jan/2019 11:26:50</t>
-  </si>
-  <si>
-    <t>21/Jan/2019 11:29:55</t>
-  </si>
-  <si>
-    <t>21/Jan/2019 11:35:00</t>
-  </si>
-  <si>
     <t>https://slideteam.net</t>
   </si>
   <si>
@@ -59,24 +41,6 @@
     <t>7.2s</t>
   </si>
   <si>
-    <t>5.8s</t>
-  </si>
-  <si>
-    <t>6.5s</t>
-  </si>
-  <si>
-    <t>6.4s</t>
-  </si>
-  <si>
-    <t>6.3s</t>
-  </si>
-  <si>
-    <t>5.5s</t>
-  </si>
-  <si>
-    <t>6.8s</t>
-  </si>
-  <si>
     <t>Dallas, USA</t>
   </si>
   <si>
@@ -84,21 +48,6 @@
   </si>
   <si>
     <t>3.6s</t>
-  </si>
-  <si>
-    <t>4.2s</t>
-  </si>
-  <si>
-    <t>4.7s</t>
-  </si>
-  <si>
-    <t>5.3s</t>
-  </si>
-  <si>
-    <t>9.2s</t>
-  </si>
-  <si>
-    <t>5.9s</t>
   </si>
   <si>
     <t>https://www.slideteam.net/free-business-powerpoint-templates</t>
@@ -127,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -158,9 +107,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,22 +196,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -195,91 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +434,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,16 +462,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +494,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -537,40 +510,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,15 +539,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,130 +557,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,13 +1013,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="30.2857142857143" customWidth="1"/>
@@ -1078,14 +1027,14 @@
     <col min="4" max="4" width="27.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="29.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="28.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="21.1428571428571" customWidth="1"/>
     <col min="9" max="9" width="19.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="19.4285714285714" customWidth="1"/>
     <col min="11" max="11" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,91 +1050,37 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1208,7 +1103,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1234,7 +1129,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1260,7 +1155,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1286,7 +1181,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -1312,7 +1207,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -1338,7 +1233,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -1364,7 +1259,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1">

--- a/LoadTest.xlsx
+++ b/LoadTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>URL</t>
   </si>
@@ -26,9 +26,6 @@
     <t>21/Jan/2019 09:39:51</t>
   </si>
   <si>
-    <t>21/Jan/2019 10:24:18</t>
-  </si>
-  <si>
     <t>https://slideteam.net</t>
   </si>
   <si>
@@ -38,16 +35,10 @@
     <t>7.1s</t>
   </si>
   <si>
-    <t>7.2s</t>
-  </si>
-  <si>
     <t>Dallas, USA</t>
   </si>
   <si>
     <t>3.8s</t>
-  </si>
-  <si>
-    <t>3.6s</t>
   </si>
   <si>
     <t>https://www.slideteam.net/free-business-powerpoint-templates</t>
@@ -114,13 +105,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -136,9 +120,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,31 +134,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,8 +158,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -204,15 +182,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,9 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,25 +240,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,55 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,49 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,26 +443,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,16 +501,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,148 +530,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,13 +1004,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="30.2857142857143" customWidth="1"/>
@@ -1034,7 +1025,7 @@
     <col min="11" max="11" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,40 +1038,31 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1103,7 +1085,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1129,7 +1111,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1155,7 +1137,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -1181,7 +1163,7 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -1207,7 +1189,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -1233,7 +1215,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -1259,7 +1241,7 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:1">
